--- a/biology/Médecine/Organotropisme/Organotropisme.xlsx
+++ b/biology/Médecine/Organotropisme/Organotropisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">l'organotropisme désigne le processus par lequel certaines molécules, qui peuvent être des contaminants, des toxiques, des radionucléides ou de simples oligo-éléments (comme l'iode vers la thyroïde) sont dirigés et éventuellement durablement stocké par certains organes, de manière préférentielle, voire quasi-exclusive. 
 Ceci se fait dans le cadre du fonctionnement normal d'organes, dans le cadre d'une thérapie, ou au sein de l'organisme en cas de processus exceptionnels de détoxication (en cas d'empoisonnement), avec dans les deux derniers cas de possibles séquelles pour l'organe ou l'organisme. 
@@ -513,7 +525,9 @@
           <t>Intérêt</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La compréhension de ces mécanismes a une grande importance en médecine et en écologie, notamment pour comprendre ou limiter les impacts de molécules toxiques très rémanentes (organochlorés, organophosphorés...) ou non biodégradables ou très lentement dégradables (métaux lourds, radionucléides par exemple..).  
 L'organotropisme est également utilisé pour soigner. À titre d'exemple, une molécule toxique (césium radioactif à usage médical) qui ne se lie durablement qu'à la thyroïde permet de détruire cet organe lorsqu'il est touché par un cancer. Une partie de la chimiothérapie repose sur ce principe.
